--- a/data/Curation_data/manual_curation.xlsx
+++ b/data/Curation_data/manual_curation.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB_REPO\eoanalysis\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB_REPO\biogps_essoils\data\Curation_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48205741-035B-42F4-A0AD-69F9FA43C240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9411C-48F2-4297-B305-87CA16EC5A0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5316" activeTab="1" xr2:uid="{B08FDB75-03EE-42FB-9439-6A55BCF9F065}"/>
   </bookViews>
   <sheets>
     <sheet name="multiple_genes" sheetId="1" r:id="rId1"/>
-    <sheet name="proteins" sheetId="6" r:id="rId2"/>
+    <sheet name="proteins" sheetId="8" r:id="rId2"/>
     <sheet name="target_curation" sheetId="4" r:id="rId3"/>
     <sheet name="pdb_curation" sheetId="3" r:id="rId4"/>
     <sheet name="pubmed" sheetId="5" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1927">
   <si>
     <t>Staphylococcus aureus</t>
   </si>
@@ -4518,9 +4518,6 @@
     <t>PfkA</t>
   </si>
   <si>
-    <t>PutA</t>
-  </si>
-  <si>
     <t>LacA</t>
   </si>
   <si>
@@ -4681,6 +4678,1155 @@
   </si>
   <si>
     <t>OprO</t>
+  </si>
+  <si>
+    <t>GuaA</t>
+  </si>
+  <si>
+    <t>GUAA</t>
+  </si>
+  <si>
+    <t>BARA</t>
+  </si>
+  <si>
+    <t>BarA</t>
+  </si>
+  <si>
+    <t>BIRA</t>
+  </si>
+  <si>
+    <t>BirA</t>
+  </si>
+  <si>
+    <t>NuoC</t>
+  </si>
+  <si>
+    <t>NUOCD</t>
+  </si>
+  <si>
+    <t>RPOB</t>
+  </si>
+  <si>
+    <t>RPOA</t>
+  </si>
+  <si>
+    <t>RPOA/RPOB</t>
+  </si>
+  <si>
+    <t>RpoA/RpoB</t>
+  </si>
+  <si>
+    <t>EntF</t>
+  </si>
+  <si>
+    <t>ENTF</t>
+  </si>
+  <si>
+    <t>RECA</t>
+  </si>
+  <si>
+    <t>RecA</t>
+  </si>
+  <si>
+    <t>FTSN</t>
+  </si>
+  <si>
+    <t>FtsN</t>
+  </si>
+  <si>
+    <t>RSMB</t>
+  </si>
+  <si>
+    <t>RsmB</t>
+  </si>
+  <si>
+    <t>ARCB</t>
+  </si>
+  <si>
+    <t>ArcB</t>
+  </si>
+  <si>
+    <t>METH</t>
+  </si>
+  <si>
+    <t>MetH</t>
+  </si>
+  <si>
+    <t>LPTC</t>
+  </si>
+  <si>
+    <t>LptC</t>
+  </si>
+  <si>
+    <t>EFP</t>
+  </si>
+  <si>
+    <t>Efp</t>
+  </si>
+  <si>
+    <t>GyrB</t>
+  </si>
+  <si>
+    <t>GYRB</t>
+  </si>
+  <si>
+    <t>HFQ</t>
+  </si>
+  <si>
+    <t>Hfq</t>
+  </si>
+  <si>
+    <t>ILVE</t>
+  </si>
+  <si>
+    <t>IlvE</t>
+  </si>
+  <si>
+    <t>TRMD</t>
+  </si>
+  <si>
+    <t>TrmD</t>
+  </si>
+  <si>
+    <t>FOLD</t>
+  </si>
+  <si>
+    <t>FolD</t>
+  </si>
+  <si>
+    <t>MURA</t>
+  </si>
+  <si>
+    <t>MurA</t>
+  </si>
+  <si>
+    <t>ALGL</t>
+  </si>
+  <si>
+    <t>AlgL</t>
+  </si>
+  <si>
+    <t>MUCA</t>
+  </si>
+  <si>
+    <t>MUCB</t>
+  </si>
+  <si>
+    <t>MUCA/MUCB</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>MucA/MucB</t>
+  </si>
+  <si>
+    <t>ENO</t>
+  </si>
+  <si>
+    <t>Eno</t>
+  </si>
+  <si>
+    <t>GLYA</t>
+  </si>
+  <si>
+    <t>GlyA</t>
+  </si>
+  <si>
+    <t>NDK</t>
+  </si>
+  <si>
+    <t>Ndk</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>FTSZ</t>
+  </si>
+  <si>
+    <t>FtsZ</t>
+  </si>
+  <si>
+    <t>CSHA</t>
+  </si>
+  <si>
+    <t>CshA</t>
+  </si>
+  <si>
+    <t>CLFA</t>
+  </si>
+  <si>
+    <t>ClfA</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>Pnp</t>
+  </si>
+  <si>
+    <t>LDH1</t>
+  </si>
+  <si>
+    <t>Ldh1</t>
+  </si>
+  <si>
+    <t>MENE</t>
+  </si>
+  <si>
+    <t>MenE</t>
+  </si>
+  <si>
+    <t>ATOB</t>
+  </si>
+  <si>
+    <t>FABA</t>
+  </si>
+  <si>
+    <t>FABH</t>
+  </si>
+  <si>
+    <t>ACCC/BCCP</t>
+  </si>
+  <si>
+    <t>PYRB/PYRI</t>
+  </si>
+  <si>
+    <t>RIR1/RIR2</t>
+  </si>
+  <si>
+    <t>DCD</t>
+  </si>
+  <si>
+    <t>TYSY</t>
+  </si>
+  <si>
+    <t>DUT</t>
+  </si>
+  <si>
+    <t>NAGD</t>
+  </si>
+  <si>
+    <t>USHA</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>TYPH</t>
+  </si>
+  <si>
+    <t>NRDI/RIR4</t>
+  </si>
+  <si>
+    <t>METF</t>
+  </si>
+  <si>
+    <t>MDH</t>
+  </si>
+  <si>
+    <t>CAPP</t>
+  </si>
+  <si>
+    <t>5DNU</t>
+  </si>
+  <si>
+    <t>FDHF</t>
+  </si>
+  <si>
+    <t>DHSC/DHSD/SDHA/SDHB/SDHE</t>
+  </si>
+  <si>
+    <t>ACNB</t>
+  </si>
+  <si>
+    <t>PXPA</t>
+  </si>
+  <si>
+    <t>AMPA</t>
+  </si>
+  <si>
+    <t>PEPB</t>
+  </si>
+  <si>
+    <t>YFCF</t>
+  </si>
+  <si>
+    <t>GSP</t>
+  </si>
+  <si>
+    <t>GGT</t>
+  </si>
+  <si>
+    <t>6PGD</t>
+  </si>
+  <si>
+    <t>GSH1</t>
+  </si>
+  <si>
+    <t>AMPN</t>
+  </si>
+  <si>
+    <t>DCEB</t>
+  </si>
+  <si>
+    <t>NADB</t>
+  </si>
+  <si>
+    <t>GLMS</t>
+  </si>
+  <si>
+    <t>PURA</t>
+  </si>
+  <si>
+    <t>ASPG2</t>
+  </si>
+  <si>
+    <t>IAAA</t>
+  </si>
+  <si>
+    <t>ALAA</t>
+  </si>
+  <si>
+    <t>PUR8</t>
+  </si>
+  <si>
+    <t>GABD</t>
+  </si>
+  <si>
+    <t>DHE4</t>
+  </si>
+  <si>
+    <t>DCEA</t>
+  </si>
+  <si>
+    <t>GABT</t>
+  </si>
+  <si>
+    <t>GLSA1</t>
+  </si>
+  <si>
+    <t>ASNB</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>ABDH</t>
+  </si>
+  <si>
+    <t>PROB</t>
+  </si>
+  <si>
+    <t>SPEB</t>
+  </si>
+  <si>
+    <t>ASTC</t>
+  </si>
+  <si>
+    <t>ADIA</t>
+  </si>
+  <si>
+    <t>ASTB</t>
+  </si>
+  <si>
+    <t>METC</t>
+  </si>
+  <si>
+    <t>METB</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>TRXB</t>
+  </si>
+  <si>
+    <t>MALY</t>
+  </si>
+  <si>
+    <t>TNAA</t>
+  </si>
+  <si>
+    <t>TAUD</t>
+  </si>
+  <si>
+    <t>CYBH/MBHL/MBHS</t>
+  </si>
+  <si>
+    <t>NFSA</t>
+  </si>
+  <si>
+    <t>ILVN</t>
+  </si>
+  <si>
+    <t>CISY</t>
+  </si>
+  <si>
+    <t>TOLC</t>
+  </si>
+  <si>
+    <t>OPPA</t>
+  </si>
+  <si>
+    <t>OMPC</t>
+  </si>
+  <si>
+    <t>OMPF</t>
+  </si>
+  <si>
+    <t>MRDA</t>
+  </si>
+  <si>
+    <t>GCSH/GCST</t>
+  </si>
+  <si>
+    <t>FCTA</t>
+  </si>
+  <si>
+    <t>MASY</t>
+  </si>
+  <si>
+    <t>GHRA</t>
+  </si>
+  <si>
+    <t>FUCO</t>
+  </si>
+  <si>
+    <t>OXC</t>
+  </si>
+  <si>
+    <t>ALKH</t>
+  </si>
+  <si>
+    <t>CYNS</t>
+  </si>
+  <si>
+    <t>NAPA</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>NRFA</t>
+  </si>
+  <si>
+    <t>ACEA</t>
+  </si>
+  <si>
+    <t>NARK</t>
+  </si>
+  <si>
+    <t>PAND/PANZ</t>
+  </si>
+  <si>
+    <t>AMO</t>
+  </si>
+  <si>
+    <t>TALB</t>
+  </si>
+  <si>
+    <t>DEOC</t>
+  </si>
+  <si>
+    <t>G6PI</t>
+  </si>
+  <si>
+    <t>PFKB</t>
+  </si>
+  <si>
+    <t>ALF</t>
+  </si>
+  <si>
+    <t>ACP/DAUA/FABB/FABD/FABF/FABZ</t>
+  </si>
+  <si>
+    <t>SUCC/SUCD</t>
+  </si>
+  <si>
+    <t>PRPB</t>
+  </si>
+  <si>
+    <t>SCPB</t>
+  </si>
+  <si>
+    <t>MGSA</t>
+  </si>
+  <si>
+    <t>YQHD</t>
+  </si>
+  <si>
+    <t>PFLB</t>
+  </si>
+  <si>
+    <t>SERA</t>
+  </si>
+  <si>
+    <t>BFR/CLPA/CLPS/DPS</t>
+  </si>
+  <si>
+    <t>ADHE</t>
+  </si>
+  <si>
+    <t>PAAH</t>
+  </si>
+  <si>
+    <t>YDIF</t>
+  </si>
+  <si>
+    <t>DAPA</t>
+  </si>
+  <si>
+    <t>CHEA/CHEY/FLIM</t>
+  </si>
+  <si>
+    <t>PHEC</t>
+  </si>
+  <si>
+    <t>MGLB</t>
+  </si>
+  <si>
+    <t>FABZ</t>
+  </si>
+  <si>
+    <t>FABG</t>
+  </si>
+  <si>
+    <t>GSA</t>
+  </si>
+  <si>
+    <t>AMIE</t>
+  </si>
+  <si>
+    <t>THRH</t>
+  </si>
+  <si>
+    <t>ALGC</t>
+  </si>
+  <si>
+    <t>Puta</t>
+  </si>
+  <si>
+    <t>BCCP</t>
+  </si>
+  <si>
+    <t>CHEY</t>
+  </si>
+  <si>
+    <t>CYBH</t>
+  </si>
+  <si>
+    <t>DAUA</t>
+  </si>
+  <si>
+    <t>DHSC</t>
+  </si>
+  <si>
+    <t>DHSD</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>FABB</t>
+  </si>
+  <si>
+    <t>MALF</t>
+  </si>
+  <si>
+    <t>MALG</t>
+  </si>
+  <si>
+    <t>MALK</t>
+  </si>
+  <si>
+    <t>MBHL</t>
+  </si>
+  <si>
+    <t>MBHS</t>
+  </si>
+  <si>
+    <t>MUTS</t>
+  </si>
+  <si>
+    <t>PAND</t>
+  </si>
+  <si>
+    <t>PYRB</t>
+  </si>
+  <si>
+    <t>PYRI</t>
+  </si>
+  <si>
+    <t>RIR1</t>
+  </si>
+  <si>
+    <t>SDHA</t>
+  </si>
+  <si>
+    <t>SDHB</t>
+  </si>
+  <si>
+    <t>BLAT</t>
+  </si>
+  <si>
+    <t>CLPA</t>
+  </si>
+  <si>
+    <t>CLPS</t>
+  </si>
+  <si>
+    <t>DAPD</t>
+  </si>
+  <si>
+    <t>FABF</t>
+  </si>
+  <si>
+    <t>FLIM</t>
+  </si>
+  <si>
+    <t>GCSH</t>
+  </si>
+  <si>
+    <t>GCST</t>
+  </si>
+  <si>
+    <t>MASZ</t>
+  </si>
+  <si>
+    <t>NIRS</t>
+  </si>
+  <si>
+    <t>NRDI</t>
+  </si>
+  <si>
+    <t>PANZ</t>
+  </si>
+  <si>
+    <t>PHNW</t>
+  </si>
+  <si>
+    <t>RIR4</t>
+  </si>
+  <si>
+    <t>SUCC</t>
+  </si>
+  <si>
+    <t>SUCD</t>
+  </si>
+  <si>
+    <t>ACP</t>
+  </si>
+  <si>
+    <t>CHEA</t>
+  </si>
+  <si>
+    <t>SERC</t>
+  </si>
+  <si>
+    <t>SDHE</t>
+  </si>
+  <si>
+    <t>FABD</t>
+  </si>
+  <si>
+    <t>TauD</t>
+  </si>
+  <si>
+    <t>DauA</t>
+  </si>
+  <si>
+    <t>AccB</t>
+  </si>
+  <si>
+    <t>FabA</t>
+  </si>
+  <si>
+    <t>AccC/AccC</t>
+  </si>
+  <si>
+    <t>AtoB</t>
+  </si>
+  <si>
+    <t>FabB</t>
+  </si>
+  <si>
+    <t>FabD</t>
+  </si>
+  <si>
+    <t>FabF</t>
+  </si>
+  <si>
+    <t>FabZ</t>
+  </si>
+  <si>
+    <t>PyrB</t>
+  </si>
+  <si>
+    <t>FabH</t>
+  </si>
+  <si>
+    <t>AcpP</t>
+  </si>
+  <si>
+    <t>PyrI</t>
+  </si>
+  <si>
+    <t>PyrB/PyrI</t>
+  </si>
+  <si>
+    <t>NrdA</t>
+  </si>
+  <si>
+    <t>NrdB</t>
+  </si>
+  <si>
+    <t>NrdA/NrdB</t>
+  </si>
+  <si>
+    <t>AcpP/DauA/FabB/FabD/FabF/FabZ</t>
+  </si>
+  <si>
+    <t>PyrC</t>
+  </si>
+  <si>
+    <t>Dcd</t>
+  </si>
+  <si>
+    <t>ThyA</t>
+  </si>
+  <si>
+    <t>YfbR</t>
+  </si>
+  <si>
+    <t>Dut</t>
+  </si>
+  <si>
+    <t>NagD</t>
+  </si>
+  <si>
+    <t>UshA</t>
+  </si>
+  <si>
+    <t>Cdd</t>
+  </si>
+  <si>
+    <t>DeoA</t>
+  </si>
+  <si>
+    <t>NrdI/NrdF</t>
+  </si>
+  <si>
+    <t>NrdF</t>
+  </si>
+  <si>
+    <t>NrdI</t>
+  </si>
+  <si>
+    <t>SdhA</t>
+  </si>
+  <si>
+    <t>SdhB</t>
+  </si>
+  <si>
+    <t>MetF</t>
+  </si>
+  <si>
+    <t>SdhE</t>
+  </si>
+  <si>
+    <t>Mdh</t>
+  </si>
+  <si>
+    <t>FumC</t>
+  </si>
+  <si>
+    <t>Ppc</t>
+  </si>
+  <si>
+    <t>Icd</t>
+  </si>
+  <si>
+    <t>SdhC</t>
+  </si>
+  <si>
+    <t>SdhD</t>
+  </si>
+  <si>
+    <t>FdhF</t>
+  </si>
+  <si>
+    <t>SdhA/SdhB/SdhC/SdhD/SdhE</t>
+  </si>
+  <si>
+    <t>AcnB</t>
+  </si>
+  <si>
+    <t>PepN</t>
+  </si>
+  <si>
+    <t>PxpA</t>
+  </si>
+  <si>
+    <t>PepA</t>
+  </si>
+  <si>
+    <t>PepB</t>
+  </si>
+  <si>
+    <t>YfcF</t>
+  </si>
+  <si>
+    <t>Gss</t>
+  </si>
+  <si>
+    <t>Ggt</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>GshA</t>
+  </si>
+  <si>
+    <t>GadB</t>
+  </si>
+  <si>
+    <t>AnsA</t>
+  </si>
+  <si>
+    <t>ArgG</t>
+  </si>
+  <si>
+    <t>NadB</t>
+  </si>
+  <si>
+    <t>GlmS</t>
+  </si>
+  <si>
+    <t>PutrF</t>
+  </si>
+  <si>
+    <t>PurA</t>
+  </si>
+  <si>
+    <t>AnsB</t>
+  </si>
+  <si>
+    <t>AsnB</t>
+  </si>
+  <si>
+    <t>IaaA</t>
+  </si>
+  <si>
+    <t>AlaA</t>
+  </si>
+  <si>
+    <t>PurB</t>
+  </si>
+  <si>
+    <t>GabD</t>
+  </si>
+  <si>
+    <t>GdhA</t>
+  </si>
+  <si>
+    <t>GadA</t>
+  </si>
+  <si>
+    <t>GabT</t>
+  </si>
+  <si>
+    <t>GlsA</t>
+  </si>
+  <si>
+    <t>PatA</t>
+  </si>
+  <si>
+    <t>PatD</t>
+  </si>
+  <si>
+    <t>ProB</t>
+  </si>
+  <si>
+    <t>SpeB</t>
+  </si>
+  <si>
+    <t>AstC</t>
+  </si>
+  <si>
+    <t>AdiA</t>
+  </si>
+  <si>
+    <t>AstB</t>
+  </si>
+  <si>
+    <t>MalY</t>
+  </si>
+  <si>
+    <t>MetC</t>
+  </si>
+  <si>
+    <t>MetB</t>
+  </si>
+  <si>
+    <t>MetG</t>
+  </si>
+  <si>
+    <t>TrxB</t>
+  </si>
+  <si>
+    <t>SucB</t>
+  </si>
+  <si>
+    <t>TnaA</t>
+  </si>
+  <si>
+    <t>NfsA</t>
+  </si>
+  <si>
+    <t>HyaC</t>
+  </si>
+  <si>
+    <t>HyaB</t>
+  </si>
+  <si>
+    <t>HyaA</t>
+  </si>
+  <si>
+    <t>HyaA/HyaB/HyaC</t>
+  </si>
+  <si>
+    <t>AmpC</t>
+  </si>
+  <si>
+    <t>Asd</t>
+  </si>
+  <si>
+    <t>IlvN</t>
+  </si>
+  <si>
+    <t>TolC</t>
+  </si>
+  <si>
+    <t>GltA</t>
+  </si>
+  <si>
+    <t>OppA</t>
+  </si>
+  <si>
+    <t>OmpC</t>
+  </si>
+  <si>
+    <t>OmpF</t>
+  </si>
+  <si>
+    <t>MrdA</t>
+  </si>
+  <si>
+    <t>Oxc</t>
+  </si>
+  <si>
+    <t>AceA</t>
+  </si>
+  <si>
+    <t>NarK</t>
+  </si>
+  <si>
+    <t>GcvH</t>
+  </si>
+  <si>
+    <t>GcvT</t>
+  </si>
+  <si>
+    <t>GcvH/GcvT</t>
+  </si>
+  <si>
+    <t>Frc</t>
+  </si>
+  <si>
+    <t>AceB</t>
+  </si>
+  <si>
+    <t>GhrA</t>
+  </si>
+  <si>
+    <t>FucO</t>
+  </si>
+  <si>
+    <t>Eda</t>
+  </si>
+  <si>
+    <t>CynS</t>
+  </si>
+  <si>
+    <t>NapA</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>NrfA</t>
+  </si>
+  <si>
+    <t>TynA</t>
+  </si>
+  <si>
+    <t>PanD/PanZ</t>
+  </si>
+  <si>
+    <t>PanZ</t>
+  </si>
+  <si>
+    <t>PanD</t>
+  </si>
+  <si>
+    <t>TalB</t>
+  </si>
+  <si>
+    <t>DeoC</t>
+  </si>
+  <si>
+    <t>Pgi</t>
+  </si>
+  <si>
+    <t>PfkB</t>
+  </si>
+  <si>
+    <t>FbaA</t>
+  </si>
+  <si>
+    <t>PflB</t>
+  </si>
+  <si>
+    <t>SucD</t>
+  </si>
+  <si>
+    <t>SucC</t>
+  </si>
+  <si>
+    <t>SucC/SucD</t>
+  </si>
+  <si>
+    <t>PrpB</t>
+  </si>
+  <si>
+    <t>ScpB</t>
+  </si>
+  <si>
+    <t>MgsA</t>
+  </si>
+  <si>
+    <t>YqhD</t>
+  </si>
+  <si>
+    <t>HemB</t>
+  </si>
+  <si>
+    <t>Bfr</t>
+  </si>
+  <si>
+    <t>ClpA</t>
+  </si>
+  <si>
+    <t>ClpS</t>
+  </si>
+  <si>
+    <t>Dps</t>
+  </si>
+  <si>
+    <t>Bfr/ClpA/ClpS/Dps</t>
+  </si>
+  <si>
+    <t>SerA</t>
+  </si>
+  <si>
+    <t>YdiF</t>
+  </si>
+  <si>
+    <t>AdhE</t>
+  </si>
+  <si>
+    <t>PaaH</t>
+  </si>
+  <si>
+    <t>DapA</t>
+  </si>
+  <si>
+    <t>Bla</t>
+  </si>
+  <si>
+    <t>MalE</t>
+  </si>
+  <si>
+    <t>MalF</t>
+  </si>
+  <si>
+    <t>MalG</t>
+  </si>
+  <si>
+    <t>MalK</t>
+  </si>
+  <si>
+    <t>MutS</t>
+  </si>
+  <si>
+    <t>Bla/MalE/MalF/MalG/MalK/MutS</t>
+  </si>
+  <si>
+    <t>MglB</t>
+  </si>
+  <si>
+    <t>CheA</t>
+  </si>
+  <si>
+    <t>FliM</t>
+  </si>
+  <si>
+    <t>CheY</t>
+  </si>
+  <si>
+    <t>CheA/CheY/FliM</t>
+  </si>
+  <si>
+    <t>PheC</t>
+  </si>
+  <si>
+    <t>FabG</t>
+  </si>
+  <si>
+    <t>HemL</t>
+  </si>
+  <si>
+    <t>AmiE</t>
+  </si>
+  <si>
+    <t>ThrH</t>
+  </si>
+  <si>
+    <t>AlgC</t>
+  </si>
+  <si>
+    <t>DapD</t>
+  </si>
+  <si>
+    <t>GlcB</t>
+  </si>
+  <si>
+    <t>NirS</t>
+  </si>
+  <si>
+    <t>PhnW</t>
+  </si>
+  <si>
+    <t>SerC</t>
+  </si>
+  <si>
+    <t>BLAT/MALE/MALF/MALG/MALK/MUTS</t>
   </si>
 </sst>
 </file>
@@ -4766,7 +5912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4839,6 +5985,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5154,10 +6303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15935177-79CE-43B5-8DB0-9BA6155D524C}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5300,25 +6449,25 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+        <v>1586</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="A14" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>1587</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5326,7 +6475,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -5337,7 +6486,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -5348,10 +6497,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5359,65 +6508,109 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>1169</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>1171</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>1500</v>
+      <c r="C25" s="4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1554</v>
       </c>
     </row>
   </sheetData>
@@ -5426,656 +6619,3311 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD927C33-7527-4261-9404-F4624107F123}">
-  <dimension ref="A1:B79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C3C31B-A253-450D-B65A-678A817F76FA}">
+  <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B79" sqref="A1:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="28" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C194" s="37" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C195" s="37" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C196" s="25" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C197" s="25" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C198" s="25" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C199" s="25" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C200" s="25" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="25" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C201" s="25" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="25" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="25" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="25" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" s="25" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C222" s="25" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C223" s="25" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C224" s="28" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="25" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C226" s="25" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C229" s="28" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="25" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C230" s="25" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="25" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C231" s="25" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C233" s="25" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C234" s="25" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="25" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C235" s="25" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C237" s="28" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C238" s="25" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C239" s="28" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C240" s="25" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C242" s="25" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C243" s="25" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C244" s="28" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C246" s="25" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" s="25" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C248" s="25" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C249" s="25" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C250" s="25" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C251" s="25" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C255" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C257" s="25" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C259" s="25" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C260" s="25" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C261" s="25" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C262" s="25" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C263" s="25" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C264" s="25" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C265" s="25" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C266" s="25" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C267" s="28" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C269" s="28" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C270" s="25" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B43" s="25" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C271" s="25" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C272" s="25" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C273" s="28" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C274" s="25" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C275" s="28" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" s="25" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C278" s="28" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C279" s="25" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C282" s="25" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C283" s="25" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C284" s="25" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C285" s="25" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C287" s="25" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C290" s="25" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C291" s="25" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C293" s="25" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C294" s="25" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C296" s="28" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C297" s="25" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>1544</v>
-      </c>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C298" s="25" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="28"/>
+      <c r="B299" s="28"/>
+      <c r="C299" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B31">
-    <sortCondition ref="A2:A31"/>
+  <sortState ref="A2:C299">
+    <sortCondition ref="A2:A299"/>
+    <sortCondition ref="B2:B299"/>
+    <sortCondition ref="C2:C299"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6441,7 +10289,7 @@
   <dimension ref="A1:J342"/>
   <sheetViews>
     <sheetView topLeftCell="B187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16332,7 +20180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBDC959-824B-4AE5-A507-A0319D62D9C9}">
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
